--- a/tests/output/1_a_9158Statement_12Aug2025_output.xlsx
+++ b/tests/output/1_a_9158Statement_12Aug2025_output.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_3_Page_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table_4_Page_4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table_5_Page_5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Table_6_Page_6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table_7_Page_7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Table_8_Page_8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Table_9_Page_9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table_pdfplumber_3_P3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table_pdfplumber_4_P4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table_pdfplumber_5_P5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table_pdfplumber_6_P6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table_pdfplumber_7_P7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table_pdfplumber_8_P8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Table_pdfplumber_9_P9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,7 +488,7 @@
 Value Date: 10/07/2020 25.00 $ $100,256.75 CR
 15 Jul SUPA IGA MEADOWBANK MEADOWBANK NS AUS
 Card xx4128
-Value Date: 11/07/2020 6.50 $ $100,250.25 CR\n\n--- End of Page 1 ---\n\nStatement 12 (Page 2 of 9)
+Value Date: 11/07/2020 6.50 $ $100,250.25 CRStatement 12 (Page 2 of 9)
 Account Number 06 2271 10319158
 03.00.60VO.672D.149S.3R.LS
 3030
@@ -540,7 +540,7 @@
 Card xx4128
 Value Date: 05/08/2020 33.95 $ $115,974.05 CR
 12 Aug Transfer Out Admin
-Equity 92,665.22 $ $23,308.83 CR\n\n--- End of Page 2 ---\n\nStatement 12 (Page 3 of 9)
+Equity 92,665.22 $ $23,308.83 CRStatement 12 (Page 3 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -601,7 +601,7 @@
 Card xx4128
 Value Date: 19/08/2020 48.20 $ $26,527.16 CR
 21 Aug Direct Credit 529537 Sutton Anderson
-Inv Crd YAGA $372.72 $26,899.88 CR\n\n--- End of Page 3 ---\n\nStatement 12 (Page 4 of 9)
+Inv Crd YAGA $372.72 $26,899.88 CRStatement 12 (Page 4 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -663,7 +663,7 @@
 425856200000001000 167.80 $ $24,419.56 CR
 28 Aug eBay O*05-05625-14338 Sydney AU AUS
 Card xx4128
-Value Date: 25/08/2020 859.00 $ $23,560.56 CR\n\n--- End of Page 4 ---\n\nStatement 12 (Page 5 of 9)
+Value Date: 25/08/2020 859.00 $ $23,560.56 CRStatement 12 (Page 5 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -723,7 +723,7 @@
 Value Date: 02/09/2020 24.00 $ $25,002.20 CR
 05 Sep THE BODY SHOP PARRAMATTA NS AUS
 Card xx4128
-Value Date: 02/09/2020 29.75 $ $24,972.45 CR\n\n--- End of Page 5 ---\n\nStatement 12 (Page 6 of 9)
+Value Date: 02/09/2020 29.75 $ $24,972.45 CRStatement 12 (Page 6 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -783,7 +783,7 @@
 13 Sep BUNNINGS 634000 MINCHINBURY AU
 Card xx4128 213.00 $ $18,559.89 CR
 14 Sep Loan Repayment
-LN REPAY 880675558 476.00 $ $18,083.89 CR\n\n--- End of Page 6 ---\n\nStatement 12 (Page 7 of 9)
+LN REPAY 880675558 476.00 $ $18,083.89 CRStatement 12 (Page 7 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -845,7 +845,7 @@
 Value Date: 16/09/2020 61.58 $ $20,838.03 CR
 19 Sep AMBEY'S BIG APPLE WENTWORTHVILL NS AUS
 Card xx4128
-Value Date: 17/09/2020 1.99 $ $20,836.04 CR\n\n--- End of Page 7 ---\n\nStatement 12 (Page 8 of 9)
+Value Date: 17/09/2020 1.99 $ $20,836.04 CRStatement 12 (Page 8 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -905,7 +905,7 @@
 Value Date: 26/09/2020 5.99 $ $19,982.02 CR
 30 Sep AMBEY'S BIG APPLE WENTWORTHVILL NS AUS
 Card xx4128
-Value Date: 26/09/2020 21.48 $ $19,960.54 CR\n\n--- End of Page 8 ---\n\nStatement 12 (Page 9 of 9)
+Value Date: 26/09/2020 21.48 $ $19,960.54 CRStatement 12 (Page 9 of 9)
 Account Number 06 2271 10319158
 03.00.60V
 O.672D.149S.3R.LS
@@ -932,7 +932,7 @@
 Value Date: 30/09/2020 5.00 $ $23,404.51 CR
 02 Oct 2020 CLOSING BALANCE $23,404.51 CR
 Opening balance - Total debits + Total credits = Closing balance
-$0.13 DR $118,907.19 $142,311.83 $23,404.51 CR\n\n--- End of Page 9 ---\n\n</t>
+$0.13 DR $118,907.19 $142,311.83 $23,404.51 CR</t>
         </is>
       </c>
     </row>
